--- a/testCase/163mailTest/main.xlsx
+++ b/testCase/163mailTest/main.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,14 +216,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>root</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>as105372</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>设置参数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -244,10 +236,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>as105372</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>登陆</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -292,60 +280,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>YES</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>module</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>click</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo.png</t>
+    <t>as123456</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待10秒</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Step06</t>
-  </si>
-  <si>
-    <t>Step07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 坐标点击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片点击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>coordinate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step08</t>
-  </si>
-  <si>
-    <t>等待图片出现</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,6 +538,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -597,12 +555,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -937,7 +889,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -991,12 +943,8 @@
         <v>40</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
@@ -1161,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1217,18 +1165,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
@@ -1241,14 +1189,14 @@
         <v>28</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="11" t="s">
@@ -1267,18 +1215,18 @@
         <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J4" s="7"/>
     </row>
@@ -1293,18 +1241,18 @@
         <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J5" s="7"/>
     </row>
@@ -1319,56 +1267,56 @@
         <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="17"/>
       <c r="J8" s="7"/>
     </row>
@@ -1377,78 +1325,26 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="G9" s="11">
+        <v>10</v>
+      </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="23">
-        <v>500600</v>
-      </c>
+      <c r="I9" s="11"/>
       <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1457,7 +1353,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6 B8:B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6 B8:B9">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/testCase/163mailTest/main.xlsx
+++ b/testCase/163mailTest/main.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Property Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,10 +220,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>set</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>设置登陆密码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -288,20 +280,20 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等待10秒</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Step06</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetParam</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitByTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -483,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,9 +522,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -904,7 +893,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -914,22 +903,22 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -937,10 +926,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="7"/>
@@ -1109,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1121,18 +1110,17 @@
     <col min="2" max="2" width="11.75" style="10" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="16.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="10" customWidth="1"/>
-    <col min="9" max="9" width="21.25" style="10" customWidth="1"/>
-    <col min="10" max="10" width="19" style="10" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="10" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="10"/>
+    <col min="5" max="5" width="14.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="25.25" style="10" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -1152,33 +1140,29 @@
         <v>24</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1186,25 +1170,24 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1212,25 +1195,24 @@
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="7"/>
+      <c r="H4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1238,25 +1220,24 @@
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1264,39 +1245,37 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1304,23 +1283,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1328,28 +1306,25 @@
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="11">
         <v>10</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A7:I7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -1358,8 +1333,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1"/>
-    <hyperlink ref="G8" r:id="rId2" location="Login!A1"/>
+    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2" location="Login!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/testCase/163mailTest/main.xlsx
+++ b/testCase/163mailTest/main.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="435" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="1485" yWindow="435" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="17" r:id="rId1"/>
     <sheet name="TestCases" sheetId="1" r:id="rId2"/>
-    <sheet name="AndroidTest" sheetId="16" r:id="rId3"/>
+    <sheet name="Android客户端发送邮件" sheetId="16" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -21,44 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CaseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>普通操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Android客户端发送邮件</t>
@@ -74,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AndroidTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H5登录163邮箱</t>
     <rPh sb="2" eb="3">
       <t>deng'lu</t>
@@ -88,14 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WapTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iOS客户端登录</t>
     <rPh sb="3" eb="4">
       <t>ke'h'd</t>
@@ -106,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iOSTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S #</t>
   </si>
   <si>
@@ -293,6 +246,42 @@
   </si>
   <si>
     <t>WaitByTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆163邮箱网页版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,15 +474,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,6 +526,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,93 +881,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>38</v>
+      <c r="A2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
+      <c r="A9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -988,109 +977,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
+      <c r="C3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
-      <formula1>"YES,NO"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -1100,226 +1080,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="10" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="10" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="10"/>
+    <col min="1" max="1" width="6.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.25" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="8" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>10</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
